--- a/stockAccounting_ERP/FileOutput/HybridResults.xlsx
+++ b/stockAccounting_ERP/FileOutput/HybridResults.xlsx
@@ -1000,169 +1000,169 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
       <b val="true"/>
     </font>
     <font>
@@ -3561,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s" s="90">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="14" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3581,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s" s="92">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="15" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3741,7 +3741,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s" s="108">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="23" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3761,7 +3761,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="s" s="110">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="24" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3821,7 +3821,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s" s="116">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="27" s="2" spans="1:5" x14ac:dyDescent="0.45">

--- a/stockAccounting_ERP/FileOutput/HybridResults.xlsx
+++ b/stockAccounting_ERP/FileOutput/HybridResults.xlsx
@@ -1012,6 +1012,102 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="10"/>
       <b val="true"/>
     </font>
@@ -1024,90 +1120,6 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <color indexed="10"/>
       <b val="true"/>
     </font>
@@ -1120,6 +1132,30 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="10"/>
       <b val="true"/>
     </font>
@@ -1156,6 +1192,294 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="10"/>
       <b val="true"/>
     </font>
@@ -1168,337 +1492,13 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
       <b val="true"/>
     </font>
     <font>
@@ -3581,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s" s="92">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="15" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -4403,7 +4403,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="s" s="170">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="27" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4423,7 +4423,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s" s="172">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="28" s="2" spans="1:5" x14ac:dyDescent="0.45">

--- a/stockAccounting_ERP/FileOutput/HybridResults.xlsx
+++ b/stockAccounting_ERP/FileOutput/HybridResults.xlsx
@@ -712,793 +712,793 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -3038,7 +3038,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="42">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="10" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3058,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s" s="44">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="11" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3078,7 +3078,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="46">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="12" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3098,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s" s="48">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="13" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3118,7 +3118,7 @@
         <v>59</v>
       </c>
       <c r="F13" t="s" s="50">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="14" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3138,7 +3138,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="52">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="15" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3158,7 +3158,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="s" s="54">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="16" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3178,7 +3178,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="56">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="17" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3198,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="s" s="58">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="18" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3218,7 +3218,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="60">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="19" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3238,7 +3238,7 @@
         <v>59</v>
       </c>
       <c r="F19" t="s" s="62">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="20" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3561,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s" s="90">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="14" s="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3741,7 +3741,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s" s="108">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="23" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3761,7 +3761,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="s" s="110">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="24" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3821,7 +3821,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s" s="116">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="27" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4403,7 +4403,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="s" s="170">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="27" s="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4423,7 +4423,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s" s="172">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row customFormat="1" ht="18.5" r="28" s="2" spans="1:5" x14ac:dyDescent="0.45">
